--- a/assets/data/Daily_air_quality.xlsx
+++ b/assets/data/Daily_air_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10590" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3188"/>
+  <dimension ref="A1:B3187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2947" workbookViewId="0">
+      <selection activeCell="A2973" sqref="A2973:XFD2973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24187,980 +24187,980 @@
         <v>45442</v>
       </c>
       <c r="B2973" s="10">
-        <v>28.1</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="2974" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2974" s="6">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="B2974" s="10">
-        <v>27.1</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="2975" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2975" s="6">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="B2975" s="10">
-        <v>22.9</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="2976" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2976" s="6">
-        <v>45444</v>
+        <v>45445</v>
       </c>
       <c r="B2976" s="10">
-        <v>16.399999999999999</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="2977" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2977" s="6">
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="B2977" s="10">
-        <v>12.9</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="2978" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2978" s="6">
-        <v>45446</v>
+        <v>45447</v>
       </c>
       <c r="B2978" s="10">
-        <v>10.9</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="2979" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2979" s="6">
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="B2979" s="10">
-        <v>16.899999999999999</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="2980" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2980" s="6">
-        <v>45448</v>
+        <v>45449</v>
       </c>
       <c r="B2980" s="10">
-        <v>14.7</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="2981" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2981" s="6">
-        <v>45449</v>
+        <v>45450</v>
       </c>
       <c r="B2981" s="10">
-        <v>10.199999999999999</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="2982" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2982" s="6">
-        <v>45450</v>
+        <v>45451</v>
       </c>
       <c r="B2982" s="10">
-        <v>13.5</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="2983" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2983" s="6">
-        <v>45451</v>
+        <v>45452</v>
       </c>
       <c r="B2983" s="10">
-        <v>8.1999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="2984" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2984" s="6">
-        <v>45452</v>
+        <v>45453</v>
       </c>
       <c r="B2984" s="10">
-        <v>8.8000000000000007</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="2985" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2985" s="6">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="B2985" s="10">
-        <v>10.8</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="2986" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2986" s="6">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="B2986" s="10">
-        <v>11.4</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="2987" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2987" s="6">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="B2987" s="10">
-        <v>16.3</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="2988" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2988" s="6">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="B2988" s="10">
-        <v>11.4</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="2989" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2989" s="6">
-        <v>45457</v>
+        <v>45458</v>
       </c>
       <c r="B2989" s="10">
-        <v>10.7</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="2990" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2990" s="6">
-        <v>45458</v>
+        <v>45459</v>
       </c>
       <c r="B2990" s="10">
-        <v>13.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2991" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2991" s="6">
-        <v>45459</v>
+        <v>45460</v>
       </c>
       <c r="B2991" s="10">
-        <v>9</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="2992" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2992" s="6">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="B2992" s="10">
-        <v>10.6</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="2993" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2993" s="6">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="B2993" s="10">
-        <v>11.8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="2994" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2994" s="6">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B2994" s="10">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="2995" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2995" s="6">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B2995" s="10">
-        <v>6.9</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="2996" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2996" s="6">
-        <v>45464</v>
+        <v>45465</v>
       </c>
       <c r="B2996" s="10">
-        <v>10.8</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="2997" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2997" s="6">
-        <v>45465</v>
+        <v>45466</v>
       </c>
       <c r="B2997" s="10">
-        <v>8.1999999999999993</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="2998" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2998" s="6">
-        <v>45466</v>
+        <v>45467</v>
       </c>
       <c r="B2998" s="10">
-        <v>15.5</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="2999" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2999" s="6">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="B2999" s="10">
-        <v>11.1</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="3000" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3000" s="6">
-        <v>45468</v>
+        <v>45469</v>
       </c>
       <c r="B3000" s="10">
-        <v>8.4</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="3001" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3001" s="6">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="B3001" s="10">
-        <v>14.1</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="3002" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3002" s="6">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="B3002" s="10">
-        <v>11.6</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="3003" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3003" s="6">
-        <v>45471</v>
+        <v>45472</v>
       </c>
       <c r="B3003" s="10">
-        <v>16.2</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="3004" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3004" s="6">
-        <v>45472</v>
+        <v>45473</v>
       </c>
       <c r="B3004" s="10">
-        <v>18.8</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="3005" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3005" s="6">
-        <v>45473</v>
+        <v>45474</v>
       </c>
       <c r="B3005" s="10">
-        <v>21.2</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="3006" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3006" s="6">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="B3006" s="10">
-        <v>12.8</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="3007" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3007" s="6">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B3007" s="10">
-        <v>14.8</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="3008" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3008" s="6">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B3008" s="10">
-        <v>17.600000000000001</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="3009" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3009" s="6">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B3009" s="10">
-        <v>12.8</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="3010" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3010" s="6">
-        <v>45478</v>
+        <v>45479</v>
       </c>
       <c r="B3010" s="10">
-        <v>15.4</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="3011" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3011" s="6">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B3011" s="10">
-        <v>17.100000000000001</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="3012" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3012" s="6">
-        <v>45480</v>
+        <v>45481</v>
       </c>
       <c r="B3012" s="10">
-        <v>12.1</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="3013" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3013" s="6">
-        <v>45481</v>
+        <v>45482</v>
       </c>
       <c r="B3013" s="10">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="3014" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3014" s="6">
-        <v>45482</v>
+        <v>45483</v>
       </c>
       <c r="B3014" s="10">
-        <v>14.9</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="3015" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3015" s="6">
-        <v>45483</v>
+        <v>45484</v>
       </c>
       <c r="B3015" s="10">
-        <v>16.100000000000001</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="3016" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3016" s="6">
-        <v>45484</v>
+        <v>45485</v>
       </c>
       <c r="B3016" s="10">
-        <v>16.600000000000001</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="3017" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3017" s="6">
-        <v>45485</v>
+        <v>45486</v>
       </c>
       <c r="B3017" s="10">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3018" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3018" s="6">
-        <v>45486</v>
+        <v>45487</v>
       </c>
       <c r="B3018" s="10">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="3019" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3019" s="6">
-        <v>45487</v>
+        <v>45488</v>
       </c>
       <c r="B3019" s="10">
-        <v>8.5</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="3020" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3020" s="6">
-        <v>45488</v>
+        <v>45489</v>
       </c>
       <c r="B3020" s="10">
-        <v>10.6</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="3021" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3021" s="6">
-        <v>45489</v>
+        <v>45490</v>
       </c>
       <c r="B3021" s="10">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="3022" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3022" s="6">
-        <v>45490</v>
+        <v>45491</v>
       </c>
       <c r="B3022" s="10">
-        <v>15.3</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="3023" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3023" s="6">
-        <v>45491</v>
+        <v>45492</v>
       </c>
       <c r="B3023" s="10">
-        <v>11.1</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="3024" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3024" s="6">
-        <v>45492</v>
+        <v>45493</v>
       </c>
       <c r="B3024" s="10">
-        <v>8.6999999999999993</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="3025" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3025" s="6">
-        <v>45493</v>
+        <v>45494</v>
       </c>
       <c r="B3025" s="10">
-        <v>7.3</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="3026" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3026" s="6">
-        <v>45494</v>
+        <v>45495</v>
       </c>
       <c r="B3026" s="10">
-        <v>12.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="3027" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3027" s="6">
-        <v>45495</v>
+        <v>45496</v>
       </c>
       <c r="B3027" s="10">
-        <v>7.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3028" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3028" s="6">
-        <v>45496</v>
+        <v>45497</v>
       </c>
       <c r="B3028" s="10">
-        <v>15</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="3029" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3029" s="6">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="B3029" s="10">
-        <v>13.1</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="3030" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3030" s="6">
-        <v>45498</v>
+        <v>45499</v>
       </c>
       <c r="B3030" s="10">
-        <v>17.100000000000001</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="3031" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3031" s="6">
-        <v>45499</v>
+        <v>45500</v>
       </c>
       <c r="B3031" s="10">
-        <v>20.7</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="3032" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3032" s="6">
-        <v>45500</v>
+        <v>45501</v>
       </c>
       <c r="B3032" s="10">
-        <v>15.4</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="3033" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3033" s="6">
-        <v>45501</v>
+        <v>45502</v>
       </c>
       <c r="B3033" s="10">
-        <v>20.399999999999999</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="3034" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3034" s="6">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B3034" s="10">
-        <v>11.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3035" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3035" s="6">
-        <v>45503</v>
+        <v>45504</v>
       </c>
       <c r="B3035" s="10">
-        <v>9</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="3036" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3036" s="6">
-        <v>45504</v>
+        <v>45505</v>
       </c>
       <c r="B3036" s="10">
-        <v>11.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3037" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3037" s="6">
-        <v>45505</v>
+        <v>45506</v>
       </c>
       <c r="B3037" s="10">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="3038" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3038" s="6">
-        <v>45506</v>
+        <v>45507</v>
       </c>
       <c r="B3038" s="10">
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3039" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3039" s="6">
-        <v>45507</v>
+        <v>45508</v>
       </c>
       <c r="B3039" s="10">
-        <v>7.2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3040" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3040" s="6">
-        <v>45508</v>
+        <v>45509</v>
       </c>
       <c r="B3040" s="10">
-        <v>11</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="3041" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3041" s="6">
-        <v>45509</v>
+        <v>45510</v>
       </c>
       <c r="B3041" s="10">
-        <v>12.8</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="3042" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3042" s="6">
-        <v>45510</v>
+        <v>45511</v>
       </c>
       <c r="B3042" s="10">
-        <v>15.4</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="3043" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3043" s="6">
-        <v>45511</v>
+        <v>45512</v>
       </c>
       <c r="B3043" s="10">
-        <v>16.8</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="3044" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3044" s="6">
-        <v>45512</v>
+        <v>45513</v>
       </c>
       <c r="B3044" s="10">
-        <v>11.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3045" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3045" s="6">
-        <v>45513</v>
+        <v>45514</v>
       </c>
       <c r="B3045" s="10">
-        <v>11</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="3046" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3046" s="6">
-        <v>45514</v>
+        <v>45515</v>
       </c>
       <c r="B3046" s="10">
-        <v>10.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="3047" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3047" s="6">
-        <v>45515</v>
+        <v>45516</v>
       </c>
       <c r="B3047" s="10">
-        <v>6.3</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="3048" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3048" s="6">
-        <v>45516</v>
+        <v>45517</v>
       </c>
       <c r="B3048" s="10">
-        <v>11.3</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="3049" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3049" s="6">
-        <v>45517</v>
+        <v>45518</v>
       </c>
       <c r="B3049" s="10">
-        <v>16.8</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="3050" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3050" s="6">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="B3050" s="10">
-        <v>19.3</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="3051" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3051" s="6">
-        <v>45519</v>
+        <v>45520</v>
       </c>
       <c r="B3051" s="10">
-        <v>13.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3052" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3052" s="6">
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="B3052" s="10">
-        <v>12</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="3053" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3053" s="6">
-        <v>45521</v>
+        <v>45522</v>
       </c>
       <c r="B3053" s="10">
-        <v>7.7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3054" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3054" s="6">
-        <v>45522</v>
+        <v>45523</v>
       </c>
       <c r="B3054" s="10">
-        <v>13</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="3055" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3055" s="6">
-        <v>45523</v>
+        <v>45524</v>
       </c>
       <c r="B3055" s="10">
-        <v>18.3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3056" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3056" s="6">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="B3056" s="10">
-        <v>14</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="3057" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3057" s="6">
-        <v>45525</v>
+        <v>45526</v>
       </c>
       <c r="B3057" s="10">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="3058" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3058" s="6">
-        <v>45526</v>
+        <v>45527</v>
       </c>
       <c r="B3058" s="10">
-        <v>13.9</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="3059" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3059" s="6">
-        <v>45527</v>
+        <v>45528</v>
       </c>
       <c r="B3059" s="10">
-        <v>8.8000000000000007</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="3060" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3060" s="6">
-        <v>45528</v>
+        <v>45529</v>
       </c>
       <c r="B3060" s="10">
-        <v>10.4</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="3061" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3061" s="6">
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="B3061" s="10">
-        <v>16.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3062" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3062" s="6">
-        <v>45530</v>
+        <v>45531</v>
       </c>
       <c r="B3062" s="10">
-        <v>10</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="3063" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3063" s="6">
-        <v>45531</v>
+        <v>45532</v>
       </c>
       <c r="B3063" s="10">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="3064" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3064" s="6">
-        <v>45532</v>
+        <v>45533</v>
       </c>
       <c r="B3064" s="10">
-        <v>16.5</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="3065" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3065" s="6">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="B3065" s="10">
-        <v>13.6</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="3066" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3066" s="6">
-        <v>45534</v>
+        <v>45535</v>
       </c>
       <c r="B3066" s="10">
-        <v>23.1</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="3067" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3067" s="6">
-        <v>45535</v>
+        <v>45536</v>
       </c>
       <c r="B3067" s="10">
-        <v>17.600000000000001</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="3068" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3068" s="6">
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="B3068" s="10">
-        <v>25.2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3069" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3069" s="6">
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="B3069" s="10">
-        <v>17</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="3070" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3070" s="6">
-        <v>45538</v>
+        <v>45539</v>
       </c>
       <c r="B3070" s="10">
-        <v>16.100000000000001</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="3071" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3071" s="6">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="B3071" s="10">
-        <v>9.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3072" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3072" s="6">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="B3072" s="10">
-        <v>9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="3073" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3073" s="6">
-        <v>45541</v>
+        <v>45542</v>
       </c>
       <c r="B3073" s="10">
-        <v>9.1</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="3074" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3074" s="6">
-        <v>45542</v>
+        <v>45543</v>
       </c>
       <c r="B3074" s="10">
-        <v>16.600000000000001</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="3075" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3075" s="6">
-        <v>45543</v>
+        <v>45544</v>
       </c>
       <c r="B3075" s="10">
-        <v>15.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3076" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3076" s="6">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="B3076" s="10">
-        <v>17</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="3077" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3077" s="6">
-        <v>45545</v>
+        <v>45546</v>
       </c>
       <c r="B3077" s="10">
-        <v>18.2</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="3078" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3078" s="6">
-        <v>45546</v>
+        <v>45547</v>
       </c>
       <c r="B3078" s="10">
-        <v>21.3</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="3079" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3079" s="6">
-        <v>45547</v>
+        <v>45548</v>
       </c>
       <c r="B3079" s="10">
-        <v>12.9</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="3080" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3080" s="6">
-        <v>45548</v>
+        <v>45549</v>
       </c>
       <c r="B3080" s="10">
-        <v>14.2</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="3081" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3081" s="6">
-        <v>45549</v>
+        <v>45550</v>
       </c>
       <c r="B3081" s="10">
-        <v>10.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="3082" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3082" s="6">
-        <v>45550</v>
+        <v>45551</v>
       </c>
       <c r="B3082" s="10">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="3083" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3083" s="6">
-        <v>45551</v>
+        <v>45552</v>
       </c>
       <c r="B3083" s="10">
-        <v>6.6</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="3084" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3084" s="6">
-        <v>45552</v>
+        <v>45553</v>
       </c>
       <c r="B3084" s="10">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="3085" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3085" s="6">
-        <v>45553</v>
+        <v>45554</v>
       </c>
       <c r="B3085" s="10">
-        <v>12.8</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="3086" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3086" s="6">
-        <v>45554</v>
+        <v>45555</v>
       </c>
       <c r="B3086" s="10">
-        <v>20.3</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="3087" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3087" s="6">
-        <v>45555</v>
+        <v>45556</v>
       </c>
       <c r="B3087" s="10">
-        <v>13.2</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="3088" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3088" s="6">
-        <v>45556</v>
+        <v>45557</v>
       </c>
       <c r="B3088" s="10">
-        <v>16.600000000000001</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="3089" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3089" s="6">
-        <v>45557</v>
+        <v>45558</v>
       </c>
       <c r="B3089" s="10">
-        <v>16.8</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="3090" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3090" s="6">
-        <v>45558</v>
+        <v>45559</v>
       </c>
       <c r="B3090" s="10">
-        <v>14.6</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="3091" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3091" s="6">
-        <v>45559</v>
+        <v>45561</v>
       </c>
       <c r="B3091" s="10">
-        <v>18.7</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="3092" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3092" s="6">
-        <v>45561</v>
+        <v>45562</v>
       </c>
       <c r="B3092" s="10">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="3093" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3093" s="6">
-        <v>45562</v>
+        <v>45563</v>
       </c>
       <c r="B3093" s="10">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="3094" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3094" s="6">
-        <v>45563</v>
+        <v>45564</v>
       </c>
       <c r="B3094" s="10">
-        <v>16.2</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="3095" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3095" s="6">
-        <v>45564</v>
+        <v>45565</v>
       </c>
       <c r="B3095" s="10">
         <v>10.3</v>
@@ -25168,745 +25168,737 @@
     </row>
     <row r="3096" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3096" s="6">
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="B3096" s="10">
-        <v>10.3</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="3097" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3097" s="6">
-        <v>45566</v>
+        <v>45567</v>
       </c>
       <c r="B3097" s="10">
-        <v>9.6</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="3098" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3098" s="6">
-        <v>45567</v>
+        <v>45568</v>
       </c>
       <c r="B3098" s="10">
-        <v>15.3</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3099" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3099" s="6">
-        <v>45568</v>
+        <v>45569</v>
       </c>
       <c r="B3099" s="10">
-        <v>7.4</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="3100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3100" s="6">
-        <v>45569</v>
+        <v>45570</v>
       </c>
       <c r="B3100" s="10">
-        <v>10.8</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3101" s="6">
-        <v>45570</v>
+        <v>45571</v>
       </c>
       <c r="B3101" s="10">
-        <v>12.5</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="3102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3102" s="6">
-        <v>45571</v>
+        <v>45572</v>
       </c>
       <c r="B3102" s="10">
-        <v>15.2</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="3103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3103" s="6">
-        <v>45572</v>
+        <v>45573</v>
       </c>
       <c r="B3103" s="10">
-        <v>16.600000000000001</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3104" s="6">
-        <v>45573</v>
+        <v>45574</v>
       </c>
       <c r="B3104" s="10">
-        <v>18</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="3105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3105" s="6">
-        <v>45574</v>
+        <v>45575</v>
       </c>
       <c r="B3105" s="10">
-        <v>12.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="3106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3106" s="6">
-        <v>45575</v>
+        <v>45576</v>
       </c>
       <c r="B3106" s="10">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="3107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3107" s="6">
-        <v>45576</v>
+        <v>45577</v>
       </c>
       <c r="B3107" s="10">
-        <v>6.4</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="3108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3108" s="6">
-        <v>45577</v>
+        <v>45578</v>
       </c>
       <c r="B3108" s="10">
-        <v>10.8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="3109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3109" s="6">
-        <v>45578</v>
+        <v>45579</v>
       </c>
       <c r="B3109" s="10">
-        <v>8.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3110" s="6">
-        <v>45579</v>
+        <v>45580</v>
       </c>
       <c r="B3110" s="10">
-        <v>7</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="3111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3111" s="6">
-        <v>45580</v>
+        <v>45581</v>
       </c>
       <c r="B3111" s="10">
-        <v>17.7</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="3112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3112" s="6">
-        <v>45581</v>
+        <v>45582</v>
       </c>
       <c r="B3112" s="10">
-        <v>8.6999999999999993</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="3113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3113" s="6">
-        <v>45582</v>
+        <v>45583</v>
       </c>
       <c r="B3113" s="10">
-        <v>9.1</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="3114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3114" s="6">
-        <v>45583</v>
+        <v>45584</v>
       </c>
       <c r="B3114" s="10">
-        <v>8.3000000000000007</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="3115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3115" s="6">
-        <v>45584</v>
+        <v>45585</v>
       </c>
       <c r="B3115" s="10">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="3116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3116" s="6">
-        <v>45585</v>
+        <v>45586</v>
       </c>
       <c r="B3116" s="10">
-        <v>4.4000000000000004</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="3117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3117" s="6">
-        <v>45586</v>
+        <v>45587</v>
       </c>
       <c r="B3117" s="10">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="3118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3118" s="6">
-        <v>45587</v>
+        <v>45588</v>
       </c>
       <c r="B3118" s="10">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="3119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3119" s="6">
-        <v>45588</v>
+        <v>45589</v>
       </c>
       <c r="B3119" s="10">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="3120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3120" s="6">
-        <v>45589</v>
+        <v>45590</v>
       </c>
       <c r="B3120" s="10">
-        <v>6.7</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="3121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3121" s="6">
-        <v>45590</v>
+        <v>45591</v>
       </c>
       <c r="B3121" s="10">
-        <v>12.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3122" s="6">
-        <v>45591</v>
+        <v>45592</v>
       </c>
       <c r="B3122" s="10">
-        <v>16</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="3123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3123" s="6">
-        <v>45592</v>
+        <v>45593</v>
       </c>
       <c r="B3123" s="10">
-        <v>10.8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3124" s="6">
-        <v>45593</v>
+        <v>45594</v>
       </c>
       <c r="B3124" s="10">
-        <v>13</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="3125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3125" s="6">
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="B3125" s="10">
-        <v>12.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3126" s="6">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="B3126" s="10">
-        <v>7.5</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="3127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3127" s="6">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="B3127" s="10">
-        <v>8.8000000000000007</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="3128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3128" s="6">
-        <v>45597</v>
+        <v>45598</v>
       </c>
       <c r="B3128" s="10">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="3129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3129" s="6">
-        <v>45598</v>
+        <v>45599</v>
       </c>
       <c r="B3129" s="10">
-        <v>7.6</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="3130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3130" s="6">
-        <v>45599</v>
+        <v>45600</v>
       </c>
       <c r="B3130" s="10">
-        <v>14.7</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="3131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3131" s="6">
-        <v>45600</v>
+        <v>45601</v>
       </c>
       <c r="B3131" s="10">
-        <v>8.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3132" s="6">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="B3132" s="10">
-        <v>8</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="3133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3133" s="6">
-        <v>45602</v>
+        <v>45603</v>
       </c>
       <c r="B3133" s="10">
-        <v>11.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="3134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3134" s="6">
-        <v>45603</v>
+        <v>45604</v>
       </c>
       <c r="B3134" s="10">
-        <v>9.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3135" s="6">
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="B3135" s="10">
-        <v>11</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="3136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3136" s="6">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="B3136" s="10">
-        <v>8.3000000000000007</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="3137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3137" s="6">
-        <v>45606</v>
+        <v>45607</v>
       </c>
       <c r="B3137" s="10">
-        <v>9.9</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="3138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3138" s="6">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="B3138" s="10">
-        <v>11.4</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="3139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3139" s="6">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="B3139" s="10">
-        <v>14.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="3140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3140" s="6">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="B3140" s="10">
-        <v>7.3</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="3141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3141" s="6">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="B3141" s="10">
-        <v>11.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3142" s="6">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="B3142" s="10">
-        <v>6</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="3143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3143" s="6">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="B3143" s="10">
-        <v>15.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="3144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3144" s="6">
-        <v>45613</v>
+        <v>45614</v>
       </c>
       <c r="B3144" s="10">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="3145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3145" s="6">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="B3145" s="10">
-        <v>11.5</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="3146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3146" s="6">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="B3146" s="10">
-        <v>8.9</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="3147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3147" s="6">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="B3147" s="10">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3148" s="6">
-        <v>45617</v>
+        <v>45618</v>
       </c>
       <c r="B3148" s="10">
-        <v>11</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="3149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3149" s="6">
-        <v>45618</v>
+        <v>45619</v>
       </c>
       <c r="B3149" s="10">
-        <v>13.1</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="3150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3150" s="6">
-        <v>45619</v>
+        <v>45620</v>
       </c>
       <c r="B3150" s="10">
-        <v>9.9</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="3151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3151" s="6">
-        <v>45620</v>
+        <v>45621</v>
       </c>
       <c r="B3151" s="10">
-        <v>8.3000000000000007</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3152" s="6">
-        <v>45621</v>
+        <v>45622</v>
       </c>
       <c r="B3152" s="10">
-        <v>9</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="3153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3153" s="6">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="B3153" s="10">
-        <v>7.7</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="3154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3154" s="6">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="B3154" s="10">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="3155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3155" s="6">
-        <v>45624</v>
+        <v>45625</v>
       </c>
       <c r="B3155" s="10">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="3156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3156" s="6">
-        <v>45625</v>
+        <v>45626</v>
       </c>
       <c r="B3156" s="10">
-        <v>6.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="3157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3157" s="6">
-        <v>45626</v>
+        <v>45627</v>
       </c>
       <c r="B3157" s="10">
-        <v>2.9</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="3158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3158" s="6">
-        <v>45627</v>
+        <v>45628</v>
       </c>
       <c r="B3158" s="10">
-        <v>10.4</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="3159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3159" s="6">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="B3159" s="10">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="3160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3160" s="6">
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="B3160" s="10">
-        <v>10.6</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="3161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3161" s="6">
-        <v>45630</v>
+        <v>45631</v>
       </c>
       <c r="B3161" s="10">
-        <v>8.6999999999999993</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="3162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3162" s="6">
-        <v>45631</v>
+        <v>45632</v>
       </c>
       <c r="B3162" s="10">
-        <v>8.9</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="3163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3163" s="6">
-        <v>45632</v>
+        <v>45633</v>
       </c>
       <c r="B3163" s="10">
-        <v>18.600000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="3164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3164" s="6">
-        <v>45633</v>
+        <v>45634</v>
       </c>
       <c r="B3164" s="10">
-        <v>9.3000000000000007</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="3165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3165" s="6">
-        <v>45634</v>
+        <v>45635</v>
       </c>
       <c r="B3165" s="10">
-        <v>10.5</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="3166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3166" s="6">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="B3166" s="10">
-        <v>11.2</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="3167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3167" s="6">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="B3167" s="10">
-        <v>15.3</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="3168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3168" s="6">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="B3168" s="10">
-        <v>10.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="3169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3169" s="6">
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="B3169" s="10">
-        <v>7.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3170" s="6">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="B3170" s="10">
-        <v>7</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="3171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3171" s="6">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="B3171" s="10">
-        <v>12.8</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="3172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3172" s="6">
-        <v>45641</v>
+        <v>45642</v>
       </c>
       <c r="B3172" s="10">
-        <v>11.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3173" s="6">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B3173" s="10">
-        <v>7.2</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="3174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3174" s="6">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B3174" s="10">
-        <v>9.6999999999999993</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3175" s="6">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B3175" s="10">
-        <v>7.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="3176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3176" s="6">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B3176" s="10">
-        <v>5.7</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="3177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3177" s="6">
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="B3177" s="10">
-        <v>14.2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3178" s="6">
-        <v>45647</v>
+        <v>45648</v>
       </c>
       <c r="B3178" s="10">
-        <v>13</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="3179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3179" s="6">
-        <v>45648</v>
+        <v>45649</v>
       </c>
       <c r="B3179" s="10">
-        <v>12.7</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="3180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3180" s="6">
-        <v>45649</v>
+        <v>45650</v>
       </c>
       <c r="B3180" s="10">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="3181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3181" s="6">
-        <v>45650</v>
+        <v>45651</v>
       </c>
       <c r="B3181" s="10">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="3182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3182" s="6">
-        <v>45651</v>
+        <v>45652</v>
       </c>
       <c r="B3182" s="10">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="3183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3183" s="6">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B3183" s="10">
-        <v>8.1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3184" s="6">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B3184" s="10">
-        <v>21</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="3185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3185" s="6">
-        <v>45654</v>
+        <v>45655</v>
       </c>
       <c r="B3185" s="10">
-        <v>16.399999999999999</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="3186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3186" s="6">
-        <v>45655</v>
+        <v>45656</v>
       </c>
       <c r="B3186" s="10">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="3187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3187" s="6">
-        <v>45656</v>
+        <v>45657</v>
       </c>
       <c r="B3187" s="10">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3188" s="6">
-        <v>45657</v>
-      </c>
-      <c r="B3188" s="10">
         <v>11.8</v>
       </c>
     </row>
